--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H2">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J2">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.812765977887515</v>
+        <v>0.9623583333333334</v>
       </c>
       <c r="N2">
-        <v>0.812765977887515</v>
+        <v>2.887075</v>
       </c>
       <c r="O2">
-        <v>0.04967347609993686</v>
+        <v>0.05805926999654511</v>
       </c>
       <c r="P2">
-        <v>0.04967347609993686</v>
+        <v>0.05805926999654509</v>
       </c>
       <c r="Q2">
-        <v>6.896504255112709</v>
+        <v>8.812276122427781</v>
       </c>
       <c r="R2">
-        <v>6.896504255112709</v>
+        <v>79.31048510185002</v>
       </c>
       <c r="S2">
-        <v>0.04807307965224632</v>
+        <v>0.05628668935009724</v>
       </c>
       <c r="T2">
-        <v>0.04807307965224632</v>
+        <v>0.05628668935009721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H3">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J3">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.120597719045</v>
+        <v>12.12890133333333</v>
       </c>
       <c r="N3">
-        <v>12.120597719045</v>
+        <v>36.386704</v>
       </c>
       <c r="O3">
-        <v>0.7407694680808311</v>
+        <v>0.731739034081334</v>
       </c>
       <c r="P3">
-        <v>0.7407694680808311</v>
+        <v>0.7317390340813339</v>
       </c>
       <c r="Q3">
-        <v>102.8460295067516</v>
+        <v>111.0638562673458</v>
       </c>
       <c r="R3">
-        <v>102.8460295067516</v>
+        <v>999.5747064061121</v>
       </c>
       <c r="S3">
-        <v>0.7169031128676577</v>
+        <v>0.7093986489862369</v>
       </c>
       <c r="T3">
-        <v>0.7169031128676577</v>
+        <v>0.7093986489862368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H4">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J4">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.42880866749656</v>
+        <v>3.484187</v>
       </c>
       <c r="N4">
-        <v>3.42880866749656</v>
+        <v>10.452561</v>
       </c>
       <c r="O4">
-        <v>0.2095570558192321</v>
+        <v>0.210201695922121</v>
       </c>
       <c r="P4">
-        <v>0.2095570558192321</v>
+        <v>0.2102016959221209</v>
       </c>
       <c r="Q4">
-        <v>29.09422171781657</v>
+        <v>31.90455866872867</v>
       </c>
       <c r="R4">
-        <v>29.09422171781657</v>
+        <v>287.141028018558</v>
       </c>
       <c r="S4">
-        <v>0.2028054774306599</v>
+        <v>0.2037841254279649</v>
       </c>
       <c r="T4">
-        <v>0.2028054774306599</v>
+        <v>0.2037841254279648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H5">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J5">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.812765977887515</v>
+        <v>0.9623583333333334</v>
       </c>
       <c r="N5">
-        <v>0.812765977887515</v>
+        <v>2.887075</v>
       </c>
       <c r="O5">
-        <v>0.04967347609993686</v>
+        <v>0.05805926999654511</v>
       </c>
       <c r="P5">
-        <v>0.04967347609993686</v>
+        <v>0.05805926999654509</v>
       </c>
       <c r="Q5">
-        <v>0.2295908851940872</v>
+        <v>0.2775162349416667</v>
       </c>
       <c r="R5">
-        <v>0.2295908851940872</v>
+        <v>2.497646114475</v>
       </c>
       <c r="S5">
-        <v>0.001600396447690543</v>
+        <v>0.001772580646447873</v>
       </c>
       <c r="T5">
-        <v>0.001600396447690543</v>
+        <v>0.001772580646447873</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H6">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J6">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.120597719045</v>
+        <v>12.12890133333333</v>
       </c>
       <c r="N6">
-        <v>12.120597719045</v>
+        <v>36.386704</v>
       </c>
       <c r="O6">
-        <v>0.7407694680808311</v>
+        <v>0.731739034081334</v>
       </c>
       <c r="P6">
-        <v>0.7407694680808311</v>
+        <v>0.7317390340813339</v>
       </c>
       <c r="Q6">
-        <v>3.423837654511304</v>
+        <v>3.497623406394667</v>
       </c>
       <c r="R6">
-        <v>3.423837654511304</v>
+        <v>31.478610657552</v>
       </c>
       <c r="S6">
-        <v>0.02386635521317346</v>
+        <v>0.02234038509509708</v>
       </c>
       <c r="T6">
-        <v>0.02386635521317346</v>
+        <v>0.02234038509509708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.28248092494081</v>
+        <v>0.288371</v>
       </c>
       <c r="H7">
-        <v>0.28248092494081</v>
+        <v>0.865113</v>
       </c>
       <c r="I7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="J7">
-        <v>0.03221833004943613</v>
+        <v>0.03053053623570109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.42880866749656</v>
+        <v>3.484187</v>
       </c>
       <c r="N7">
-        <v>3.42880866749656</v>
+        <v>10.452561</v>
       </c>
       <c r="O7">
-        <v>0.2095570558192321</v>
+        <v>0.210201695922121</v>
       </c>
       <c r="P7">
-        <v>0.2095570558192321</v>
+        <v>0.2102016959221209</v>
       </c>
       <c r="Q7">
-        <v>0.9685730438394945</v>
+        <v>1.004738489377</v>
       </c>
       <c r="R7">
-        <v>0.9685730438394945</v>
+        <v>9.042646404393</v>
       </c>
       <c r="S7">
-        <v>0.006751578388572128</v>
+        <v>0.006417570494156136</v>
       </c>
       <c r="T7">
-        <v>0.006751578388572128</v>
+        <v>0.006417570494156134</v>
       </c>
     </row>
   </sheetData>
